--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>茅寰寰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -577,6 +585,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,12 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -950,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1054,7 @@
       <c r="C2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -1067,9 +1075,15 @@
       <c r="L2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="19">
+        <v>42576</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1086,7 +1100,7 @@
       <c r="C3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -1107,9 +1121,15 @@
       <c r="L3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="19">
+        <v>42577</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1120,13 +1140,13 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="39" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -1147,9 +1167,15 @@
       <c r="L4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
+      <c r="M4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="19">
+        <v>42578</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1160,7 +1186,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -1187,9 +1213,15 @@
       <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="19">
+        <v>42579</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -6027,36 +6059,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东租金宝保证金慢查询优化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -958,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,17 +1241,33 @@
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="L6" s="18"/>
       <c r="M6" s="24"/>
       <c r="N6" s="19"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_极光组.xlsx
@@ -16,12 +16,12 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,7 +1137,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="19">
-        <v>42577</v>
+        <v>42576</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>55</v>
@@ -1183,7 +1183,7 @@
         <v>54</v>
       </c>
       <c r="N4" s="19">
-        <v>42578</v>
+        <v>42576</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>55</v>
@@ -1229,7 +1229,7 @@
         <v>54</v>
       </c>
       <c r="N5" s="19">
-        <v>42579</v>
+        <v>42576</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>55</v>
@@ -1268,10 +1268,18 @@
       <c r="K6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="19">
+        <v>42577</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
